--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
@@ -549,34 +549,34 @@
         <v>0.9711091978791584</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08106100000000001</v>
+        <v>0.1503136666666667</v>
       </c>
       <c r="N2">
-        <v>0.243183</v>
+        <v>0.450941</v>
       </c>
       <c r="O2">
-        <v>0.004404799763312406</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="P2">
-        <v>0.004404799763312405</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="Q2">
-        <v>0.8458101988433334</v>
+        <v>1.568409374325556</v>
       </c>
       <c r="R2">
-        <v>7.61229178959</v>
+        <v>14.11568436893</v>
       </c>
       <c r="S2">
-        <v>0.004277541564968616</v>
+        <v>0.007797547272960633</v>
       </c>
       <c r="T2">
-        <v>0.004277541564968616</v>
+        <v>0.007797547272960634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>47.114695</v>
       </c>
       <c r="O3">
-        <v>0.8533935241547975</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="P3">
-        <v>0.8533935241547974</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="Q3">
         <v>163.8687307352611</v>
@@ -635,10 +635,10 @@
         <v>1474.81857661735</v>
       </c>
       <c r="S3">
-        <v>0.8287383007172335</v>
+        <v>0.8146942981756413</v>
       </c>
       <c r="T3">
-        <v>0.8287383007172335</v>
+        <v>0.8146942981756414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.583925666666667</v>
+        <v>2.758466666666667</v>
       </c>
       <c r="N4">
-        <v>7.751777000000001</v>
+        <v>8.275399999999999</v>
       </c>
       <c r="O4">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="P4">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="Q4">
-        <v>26.96130916124556</v>
+        <v>28.78251242688889</v>
       </c>
       <c r="R4">
-        <v>242.65178245121</v>
+        <v>259.0426118419999</v>
       </c>
       <c r="S4">
-        <v>0.1363522463324645</v>
+        <v>0.143095932067961</v>
       </c>
       <c r="T4">
-        <v>0.1363522463324645</v>
+        <v>0.143095932067961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +735,34 @@
         <v>0.9711091978791584</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03299466666666667</v>
+        <v>0.1064366666666667</v>
       </c>
       <c r="N5">
-        <v>0.09898399999999999</v>
+        <v>0.31931</v>
       </c>
       <c r="O5">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896315</v>
       </c>
       <c r="P5">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896314</v>
       </c>
       <c r="Q5">
-        <v>0.3442743807022222</v>
+        <v>1.110586079588889</v>
       </c>
       <c r="R5">
-        <v>3.098469426319999</v>
+        <v>9.995274716299999</v>
       </c>
       <c r="S5">
-        <v>0.00174110926449157</v>
+        <v>0.005521420362595239</v>
       </c>
       <c r="T5">
-        <v>0.00174110926449157</v>
+        <v>0.005521420362595239</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,34 +797,34 @@
         <v>0.02889080212084161</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.08106100000000001</v>
+        <v>0.1503136666666667</v>
       </c>
       <c r="N6">
-        <v>0.243183</v>
+        <v>0.450941</v>
       </c>
       <c r="O6">
-        <v>0.004404799763312406</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="P6">
-        <v>0.004404799763312405</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="Q6">
-        <v>0.025163117742</v>
+        <v>0.046660669034</v>
       </c>
       <c r="R6">
-        <v>0.226468059678</v>
+        <v>0.419946021306</v>
       </c>
       <c r="S6">
-        <v>0.0001272581983437887</v>
+        <v>0.0002319794682029637</v>
       </c>
       <c r="T6">
-        <v>0.0001272581983437887</v>
+        <v>0.0002319794682029637</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,10 +871,10 @@
         <v>47.114695</v>
       </c>
       <c r="O7">
-        <v>0.8533935241547975</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="P7">
-        <v>0.8533935241547974</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="Q7">
         <v>4.875145950429999</v>
@@ -883,10 +883,10 @@
         <v>43.87631355386999</v>
       </c>
       <c r="S7">
-        <v>0.02465522343756392</v>
+        <v>0.0242374099730227</v>
       </c>
       <c r="T7">
-        <v>0.02465522343756392</v>
+        <v>0.0242374099730227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.583925666666667</v>
+        <v>2.758466666666667</v>
       </c>
       <c r="N8">
-        <v>7.751777000000001</v>
+        <v>8.275399999999999</v>
       </c>
       <c r="O8">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="P8">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="Q8">
-        <v>0.8021073732980001</v>
+        <v>0.8562887396</v>
       </c>
       <c r="R8">
-        <v>7.218966359682</v>
+        <v>7.706598656399999</v>
       </c>
       <c r="S8">
-        <v>0.004056521940196556</v>
+        <v>0.004257148698314868</v>
       </c>
       <c r="T8">
-        <v>0.004056521940196556</v>
+        <v>0.004257148698314869</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,34 +983,34 @@
         <v>0.02889080212084161</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03299466666666667</v>
+        <v>0.1064366666666667</v>
       </c>
       <c r="N9">
-        <v>0.09898399999999999</v>
+        <v>0.31931</v>
       </c>
       <c r="O9">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896315</v>
       </c>
       <c r="P9">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896314</v>
       </c>
       <c r="Q9">
-        <v>0.010242270416</v>
+        <v>0.03304028294</v>
       </c>
       <c r="R9">
-        <v>0.09218043374399998</v>
+        <v>0.29736254646</v>
       </c>
       <c r="S9">
-        <v>5.17985447373442E-05</v>
+        <v>0.0001642639813010756</v>
       </c>
       <c r="T9">
-        <v>5.17985447373442E-05</v>
+        <v>0.0001642639813010756</v>
       </c>
     </row>
   </sheetData>
